--- a/src/main/webapp/resources/fial_img/구장사진.xlsx
+++ b/src/main/webapp/resources/fial_img/구장사진.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerot\Desktop\final_pj\src\main\webapp\resources\fial_img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1D7F8A-B782-4430-A57E-978F00C7BBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466388A4-3F12-47D5-ADFB-AF82B9F631E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23640" yWindow="0" windowWidth="23680" windowHeight="11960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="161">
   <si>
     <t>kleague</t>
   </si>
@@ -545,6 +545,10 @@
   </si>
   <si>
     <t>11b2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(못찾음)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1193,8 +1197,8 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1928,8 +1932,14 @@
       <c r="G32" s="4" t="s">
         <v>120</v>
       </c>
+      <c r="H32" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="I32" s="4" t="s">
         <v>140</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -1949,10 +1959,16 @@
         <v>83</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>145</v>
+        <v>120</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -1971,11 +1987,17 @@
       <c r="E34" t="s">
         <v>101</v>
       </c>
+      <c r="G34" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="H34" s="4" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>136</v>
+        <v>117</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -1994,10 +2016,18 @@
       <c r="E35" t="s">
         <v>102</v>
       </c>
+      <c r="G35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="I35" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="J35" s="4"/>
+      <c r="J35" s="4" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
@@ -2015,6 +2045,12 @@
       <c r="E36" t="s">
         <v>100</v>
       </c>
+      <c r="G36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="I36" s="4" t="s">
         <v>136</v>
       </c>
@@ -2038,6 +2074,12 @@
       <c r="E37" t="s">
         <v>112</v>
       </c>
+      <c r="G37" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="I37" s="4" t="s">
         <v>139</v>
       </c>
@@ -2064,8 +2106,14 @@
       <c r="G38" s="4" t="s">
         <v>124</v>
       </c>
+      <c r="H38" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="I38" s="4" t="s">
         <v>115</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -2085,10 +2133,16 @@
         <v>97</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>146</v>
+        <v>122</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -2110,6 +2164,12 @@
       <c r="G40" s="4" t="s">
         <v>143</v>
       </c>
+      <c r="H40" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="J40" s="4" t="s">
         <v>149</v>
       </c>
@@ -2130,6 +2190,12 @@
       <c r="E41" t="s">
         <v>59</v>
       </c>
+      <c r="G41" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="I41" s="4" t="s">
         <v>122</v>
       </c>
@@ -2156,8 +2222,14 @@
       <c r="G42" s="4" t="s">
         <v>126</v>
       </c>
+      <c r="H42" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="I42" s="4" t="s">
         <v>134</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -2176,11 +2248,17 @@
       <c r="E43" t="s">
         <v>72</v>
       </c>
+      <c r="G43" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="H43" s="4" t="s">
         <v>151</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>117</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">

--- a/src/main/webapp/resources/fial_img/구장사진.xlsx
+++ b/src/main/webapp/resources/fial_img/구장사진.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerot\Desktop\final_pj\src\main\webapp\resources\fial_img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466388A4-3F12-47D5-ADFB-AF82B9F631E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAF91D9-675B-4ACF-A11D-31B3B5EB7DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23640" yWindow="0" windowWidth="23680" windowHeight="11960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="162">
   <si>
     <t>kleague</t>
   </si>
@@ -365,9 +365,6 @@
     <t>ok</t>
   </si>
   <si>
-    <t>5f2</t>
-  </si>
-  <si>
     <t>7f1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -549,6 +546,14 @@
   </si>
   <si>
     <t>(못찾음)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7f1,5f1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(좌석없음)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1197,8 +1202,8 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1236,7 +1241,7 @@
         <v>103</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
@@ -1249,7 +1254,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="K2" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1268,12 +1273,17 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="H3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" t="s">
-        <v>114</v>
+        <v>150</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="K3" s="4"/>
     </row>
@@ -1293,11 +1303,17 @@
       <c r="E4" t="s">
         <v>27</v>
       </c>
+      <c r="G4" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="H4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>117</v>
+      <c r="J4" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1317,10 +1333,16 @@
         <v>23</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1339,11 +1361,17 @@
       <c r="E6" t="s">
         <v>93</v>
       </c>
+      <c r="G6" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="H6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>123</v>
+      <c r="J6" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1363,7 +1391,16 @@
         <v>94</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1383,13 +1420,16 @@
         <v>96</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>117</v>
+      <c r="J8" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1414,7 +1454,7 @@
         <v>24</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1434,7 +1474,7 @@
         <v>99</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1454,10 +1494,10 @@
         <v>110</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1477,11 +1517,11 @@
         <v>93</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1501,7 +1541,7 @@
         <v>105</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1521,7 +1561,7 @@
         <v>108</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1541,10 +1581,10 @@
         <v>88</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1564,10 +1604,10 @@
         <v>3</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1587,7 +1627,7 @@
         <v>21</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1607,10 +1647,10 @@
         <v>2</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1635,16 +1675,16 @@
         <v>4</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I21" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1664,16 +1704,16 @@
         <v>84</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H22" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="J22" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1693,16 +1733,16 @@
         <v>2</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H23" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1722,16 +1762,16 @@
         <v>110</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1751,16 +1791,16 @@
         <v>48</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1780,16 +1820,16 @@
         <v>1</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1809,16 +1849,16 @@
         <v>93</v>
       </c>
       <c r="G27" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="I27" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1838,16 +1878,16 @@
         <v>80</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1867,16 +1907,16 @@
         <v>81</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1896,16 +1936,16 @@
         <v>82</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1930,16 +1970,16 @@
         <v>86</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -1959,16 +1999,16 @@
         <v>83</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -1988,16 +2028,16 @@
         <v>101</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -2017,16 +2057,16 @@
         <v>102</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -2046,16 +2086,16 @@
         <v>100</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -2075,16 +2115,16 @@
         <v>112</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -2104,16 +2144,16 @@
         <v>22</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H38" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -2133,16 +2173,16 @@
         <v>97</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -2162,16 +2202,16 @@
         <v>98</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2191,16 +2231,16 @@
         <v>59</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2220,16 +2260,16 @@
         <v>78</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -2249,16 +2289,16 @@
         <v>72</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2283,10 +2323,10 @@
         <v>91</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2306,10 +2346,10 @@
         <v>96</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2329,10 +2369,10 @@
         <v>92</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -2352,13 +2392,13 @@
         <v>23</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2378,10 +2418,10 @@
         <v>113</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2401,7 +2441,7 @@
         <v>93</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2421,7 +2461,7 @@
         <v>88</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -2446,7 +2486,7 @@
         <v>88</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -2466,10 +2506,10 @@
         <v>85</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -2489,10 +2529,10 @@
         <v>106</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -2512,7 +2552,7 @@
         <v>108</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -2532,7 +2572,7 @@
         <v>107</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -2552,10 +2592,10 @@
         <v>95</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -2575,10 +2615,10 @@
         <v>87</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/resources/fial_img/구장사진.xlsx
+++ b/src/main/webapp/resources/fial_img/구장사진.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="164">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="165">
   <x:si>
     <x:t>포항 스틸러스</x:t>
   </x:si>
@@ -512,6 +512,9 @@
   </x:si>
   <x:si>
     <x:t>(뒤쪽에서 찍은위주 f-&gt;앞,m-&gt;중간,b-&gt;뒤)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11b1,1b1</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1370,9 +1373,9 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:Q60"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="J21" activeCellId="0" sqref="J21:J21"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <x:selection pane="bottomLeft" activeCell="G48" activeCellId="0" sqref="G48:G48"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -2574,7 +2577,7 @@
       <x:c r="B45" s="4"/>
       <x:c r="C45" s="4"/>
     </x:row>
-    <x:row r="46" spans="1:8">
+    <x:row r="46" spans="1:10">
       <x:c r="A46" s="4" t="s">
         <x:v>85</x:v>
       </x:c>
@@ -2591,10 +2594,16 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="G46" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="H46" s="6" t="s">
-        <x:v>71</x:v>
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I46" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="J46" s="2" t="s">
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:10">
@@ -2612,6 +2621,12 @@
       </x:c>
       <x:c r="E47" s="2" t="s">
         <x:v>79</x:v>
+      </x:c>
+      <x:c r="G47" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H47" s="2" t="s">
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I47" s="6" t="s">
         <x:v>91</x:v>
